--- a/Korean_Codes/SEX_TP_CD.xlsx
+++ b/Korean_Codes/SEX_TP_CD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Desktop/Korea/opendata4covid19/Korean_Codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000B0C44-D9A6-F44F-9266-8752B7C863AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42667C95-8360-3F4B-8F84-0F68087C3753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="6100" windowWidth="28040" windowHeight="17440" xr2:uid="{BA910AC6-C6B1-9C44-9F46-3D5252199F7C}"/>
+    <workbookView xWindow="20260" yWindow="6100" windowWidth="28040" windowHeight="17440" xr2:uid="{BA910AC6-C6B1-9C44-9F46-3D5252199F7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>SEX_TP_CD</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A0E50-2DB9-2E4A-AFEA-F484D7E90339}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -439,6 +442,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
